--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1189698.852124935</v>
+        <v>-1192338.199442957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>133.9403531807541</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>86.97022849010062</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>70.86125658305953</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>52.00638981463457</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>155.5505484857696</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>37.78106224380509</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>43.04394550269033</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.94174219837196</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>49.9921902108915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>356.346019480926</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>236.565983403814</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>76.98447646724608</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>102.2711134533585</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>5.421623586788372</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>40.6779369009417</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>108.9501037550973</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>27.25908948141936</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.6321535627874</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.67415913389058</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>275.6685478670739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.4262124629291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.092219485554</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.092219485554</v>
+        <v>1253.582246586105</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.798933444388</v>
+        <v>895.3165479793549</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>509.5282953811107</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>509.5282953811107</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.063094075051</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2035.00020673148</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W2" t="n">
-        <v>1682.231551461366</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="X2" t="n">
-        <v>1682.231551461366</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="Y2" t="n">
-        <v>1292.092219485554</v>
+        <v>1622.544763526517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2102.578639884742</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.2332512597245</v>
+        <v>1274.146581803908</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>1274.146581803908</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2509.807621516687</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2509.807621516687</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2509.807621516687</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>2220.689284020525</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>1966.004795814638</v>
       </c>
       <c r="W4" t="n">
-        <v>668.015381301272</v>
+        <v>1676.587625777677</v>
       </c>
       <c r="X4" t="n">
-        <v>440.0258304032546</v>
+        <v>1676.587625777677</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.2332512597245</v>
+        <v>1455.795046634147</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1957.346298904865</v>
+        <v>1214.090290083873</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.383781964454</v>
+        <v>845.1277731434616</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>486.8620745367111</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>101.0738219384668</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4577,40 +4577,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2310.11495417498</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2310.11495417498</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W5" t="n">
-        <v>1957.346298904865</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="X5" t="n">
-        <v>1957.346298904865</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1957.346298904865</v>
+        <v>1214.090290083873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>129.0834785909177</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>575.6256845144204</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L6" t="n">
-        <v>870.329241545892</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>251.8605878095222</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="C7" t="n">
-        <v>251.8605878095222</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="D7" t="n">
-        <v>101.7439483971864</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>101.7439483971864</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880302</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W7" t="n">
-        <v>700.6427178510696</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="X7" t="n">
-        <v>472.6531669530523</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="Y7" t="n">
-        <v>251.8605878095222</v>
+        <v>825.1371474485143</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.069587875903</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>769.482504888653</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4808,46 +4808,46 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915836</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940024</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>557.2158212631749</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>409.3027276807818</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1734.159935842628</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1512.393320412154</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1512.393320412154</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1257.708832206268</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W10" t="n">
-        <v>1257.708832206268</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.71928130825</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>707.3324606755107</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5027,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5039,13 +5039,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944943</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1323.650755795185</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.661204897168</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.8686257536381</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718135</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660706</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381638</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381638</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557706</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5713,10 +5713,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.795465539841</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963104</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>221.7279292730097</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>221.7279292730097</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2386.68615516219</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2203.831320817094</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1984.229855840035</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.154629184233</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1695.154629184233</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.737459147272</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.747908249255</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6239,10 +6239,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6917,46 +6917,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,13 +7354,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7369,13 +7369,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7500,13 +7500,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>73.66059580999752</v>
+        <v>30.36925650589507</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.64270034434983</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111052</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>322.0398311810681</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>220.7426884399289</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>324.5774742828534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.9724498508214</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>139.9994244361429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>185.0317184880955</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>48.39475227997539</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>198.4505659076178</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.66255928343648</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.701087576231082</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.583178160801231e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048896</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194635</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>181607.9849302513</v>
@@ -26329,7 +26329,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302514</v>
@@ -26347,13 +26347,13 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194636</v>
       </c>
-      <c r="O2" t="n">
-        <v>184734.3982194637</v>
-      </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182243</v>
+        <v>67721.68800182248</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53312.72503984557</v>
+        <v>53312.72503984546</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309561</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26430,34 +26430,34 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744322</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.2563917443</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
+        <v>16718.11565483776</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16718.1156548378</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16718.11565483776</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16718.11565483777</v>
+      </c>
+      <c r="P4" t="n">
         <v>16718.11565483775</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16718.11565483778</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16718.11565483775</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16718.11565483779</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16718.11565483777</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1108675.354250721</v>
+        <v>-1109035.437266438</v>
       </c>
       <c r="C6" t="n">
-        <v>-43725.51119736405</v>
+        <v>-43725.51119736428</v>
       </c>
       <c r="D6" t="n">
-        <v>-203740.9739453629</v>
+        <v>-203740.9739453627</v>
       </c>
       <c r="E6" t="n">
-        <v>-253654.2630927554</v>
+        <v>-253689.0010181912</v>
       </c>
       <c r="F6" t="n">
-        <v>71758.19871459993</v>
+        <v>71723.46078916424</v>
       </c>
       <c r="G6" t="n">
-        <v>71758.19871460009</v>
+        <v>71723.46078916438</v>
       </c>
       <c r="H6" t="n">
-        <v>71758.19871459964</v>
+        <v>71723.46078916424</v>
       </c>
       <c r="I6" t="n">
-        <v>71758.19871460016</v>
+        <v>71723.4607891643</v>
       </c>
       <c r="J6" t="n">
-        <v>-95846.97909538265</v>
+        <v>-95881.71702081843</v>
       </c>
       <c r="K6" t="n">
-        <v>71758.19871459987</v>
+        <v>71723.46078916424</v>
       </c>
       <c r="L6" t="n">
         <v>-2869.521291111989</v>
       </c>
       <c r="M6" t="n">
-        <v>-20202.86122480148</v>
+        <v>-20202.86122480147</v>
       </c>
       <c r="N6" t="n">
-        <v>64852.1667107105</v>
+        <v>64852.16671071053</v>
       </c>
       <c r="O6" t="n">
-        <v>64852.1667107105</v>
+        <v>64852.16671071044</v>
       </c>
       <c r="P6" t="n">
-        <v>64852.16671071053</v>
+        <v>64852.16671071047</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
         <v>341.306832697356</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>60.69401048241247</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>180.1839935454025</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>49.55118260493903</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>369.0949834979064</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>208.0013046257717</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.67373081984039</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>95.42885781203975</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.926872290081576</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>145.3643866684478</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>68.43657155568516</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>87.49791187808337</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30463,16 +30463,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>660.0558748011979</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201451</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33974,10 +33974,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,16 +34790,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>323.3401249335299</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>78.62292123526723</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>314.9434509778017</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>517.9218408791796</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402709</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,13 +36373,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,10 +37622,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
